--- a/target/classes/exceldocs/ALL AC findings.xlsx
+++ b/target/classes/exceldocs/ALL AC findings.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ASBO Findings (ALL)1" sheetId="3" r:id="rId1"/>
+    <sheet name="X" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,115 +20,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
-  <si>
-    <t>ServiceName</t>
-  </si>
-  <si>
-    <t>ServiceOwner</t>
-  </si>
-  <si>
-    <t>MFAP</t>
-  </si>
-  <si>
-    <t>Siddhanth</t>
-  </si>
-  <si>
-    <t>cjb0</t>
-  </si>
-  <si>
-    <t>cjb2</t>
-  </si>
-  <si>
-    <t>cjb3</t>
-  </si>
-  <si>
-    <t>VulnerabilityId</t>
-  </si>
-  <si>
-    <t>ESB</t>
-  </si>
-  <si>
-    <t>Siddhanath</t>
-  </si>
-  <si>
-    <t>esb0</t>
-  </si>
-  <si>
-    <t>esb1</t>
-  </si>
-  <si>
-    <t>esb2</t>
-  </si>
-  <si>
-    <t>esb3</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>FeatureId</t>
-  </si>
-  <si>
-    <t>ServerId</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>v8</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>v9</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Program</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>ESF Service</t>
+  </si>
+  <si>
+    <t>ESF Service Owner</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>Host Operating System</t>
+  </si>
+  <si>
+    <t>Host DNS Name</t>
+  </si>
+  <si>
+    <t>Finding ID</t>
+  </si>
+  <si>
+    <t>Finding Name</t>
+  </si>
+  <si>
+    <t>Finding Status</t>
+  </si>
+  <si>
+    <t>Finding Severity</t>
+  </si>
+  <si>
+    <t>Host IP Address</t>
+  </si>
+  <si>
+    <t>Network Port</t>
+  </si>
+  <si>
+    <t>First Published</t>
+  </si>
+  <si>
+    <t>Findings Due Date</t>
+  </si>
+  <si>
+    <t>Vulnerability Age</t>
+  </si>
+  <si>
+    <t>Days Overdue</t>
+  </si>
+  <si>
+    <t>Finding Overdue</t>
+  </si>
+  <si>
+    <t>Overdue Score</t>
+  </si>
+  <si>
+    <t>Finding Evidence</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>Feature#</t>
+  </si>
+  <si>
+    <t>Date_Submitted</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Distributed Platforms</t>
+  </si>
+  <si>
+    <t>Steven Bagby</t>
+  </si>
+  <si>
+    <t>AuthNZService</t>
+  </si>
+  <si>
+    <t>Mandeep Sandhu</t>
+  </si>
+  <si>
+    <t>DID-738086</t>
+  </si>
+  <si>
+    <t>Enterprise Linux</t>
+  </si>
+  <si>
+    <t>sds4sl1025.mastercard.int</t>
+  </si>
+  <si>
+    <t>Scan-937489</t>
+  </si>
+  <si>
+    <t>ImageMagic Remote</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>10.158.107.91</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>1/17/2021</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>Remote Package</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +201,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -189,11 +221,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -203,6 +249,12 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -212,6 +264,12 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
@@ -557,205 +615,149 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44393</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -766,4 +768,29 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>